--- a/extraction/raw extraction/lange2002_flora_i/lange2002_flora_i.xlsx
+++ b/extraction/raw extraction/lange2002_flora_i/lange2002_flora_i.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretslein/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretslein/lichen/extraction/raw extraction/lange2002_flora_i/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D38F292-6AE1-D94E-8003-282F09B10FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35DC69F-A47C-A449-8035-BF683DDCAC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29640" yWindow="-9560" windowWidth="23780" windowHeight="15900" xr2:uid="{425A97DC-4C53-3A43-A13E-0C1C385ECC92}"/>
+    <workbookView xWindow="27100" yWindow="-18900" windowWidth="23780" windowHeight="15900" xr2:uid="{425A97DC-4C53-3A43-A13E-0C1C385ECC92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,13 +45,13 @@
     <t>response</t>
   </si>
   <si>
-    <t>gross photo synthesis</t>
-  </si>
-  <si>
     <t>net photosynthesis</t>
   </si>
   <si>
     <t>dark respiration</t>
+  </si>
+  <si>
+    <t>gross photosynthesis</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C72"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -431,7 +431,7 @@
         <v>5.3722220097157898</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -442,7 +442,7 @@
         <v>7.5274889208255704</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -453,7 +453,7 @@
         <v>6.7668373396866599</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -464,7 +464,7 @@
         <v>8.9219731039721104</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -475,7 +475,7 @@
         <v>8.44991010978082</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -486,7 +486,7 @@
         <v>9.7394768334599195</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -497,7 +497,7 @@
         <v>9.5558712793919103</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -508,7 +508,7 @@
         <v>9.3984950901907602</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -519,7 +519,7 @@
         <v>10.163540089944799</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -530,7 +530,7 @@
         <v>9.8531811301577594</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -541,7 +541,7 @@
         <v>4.8214053475117602</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -552,7 +552,7 @@
         <v>5.1099283610472002</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -563,7 +563,7 @@
         <v>5.26730455024836</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -574,7 +574,7 @@
         <v>5.3985169479948203</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -585,7 +585,7 @@
         <v>5.5820569286506601</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -596,7 +596,7 @@
         <v>7.0552947798099401</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -607,7 +607,7 @@
         <v>6.9503773203425103</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -618,7 +618,7 @@
         <v>6.8192304960082097</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -629,7 +629,7 @@
         <v>6.1372670094698902</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -640,7 +640,7 @@
         <v>6.0585789148693099</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -651,7 +651,7 @@
         <v>5.79628526620073</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -662,7 +662,7 @@
         <v>5.5077622526652803</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -673,7 +673,7 @@
         <v>6.8629679619237001</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -684,7 +684,7 @@
         <v>7.1121469281588601</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -695,7 +695,7 @@
         <v>7.2957524822268702</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -706,7 +706,7 @@
         <v>7.5055874011617396</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -717,7 +717,7 @@
         <v>7.6629635903628897</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -728,7 +728,7 @@
         <v>7.8203397795640397</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -739,7 +739,7 @@
         <v>7.9514866038983403</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -750,7 +750,7 @@
         <v>8.0564040633657701</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -761,7 +761,7 @@
         <v>7.40499778689734</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -772,7 +772,7 @@
         <v>7.6673242222719997</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -783,7 +783,7 @@
         <v>7.7984382599002098</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -794,7 +794,7 @@
         <v>7.9033557193676502</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -805,7 +805,7 @@
         <v>8.0082731788350898</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -816,7 +816,7 @@
         <v>8.1394200031693806</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -827,7 +827,7 @@
         <v>8.3230255572373899</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -838,7 +838,7 @@
         <v>8.4279430167048197</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -849,7 +849,7 @@
         <v>8.5328604761722602</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -860,7 +860,7 @@
         <v>8.2881077152583806</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -871,7 +871,7 @@
         <v>8.6028600936606896</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -882,7 +882,7 @@
         <v>8.7208922355615499</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>8.8258096950289904</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -904,7 +904,7 @@
         <v>7.76791383653641</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -915,7 +915,7 @@
         <v>7.8859459784372703</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -926,7 +926,7 @@
         <v>7.9646340730378498</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -937,7 +937,7 @@
         <v>8.1219774755329208</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -948,7 +948,7 @@
         <v>-0.31961573980469898</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -959,7 +959,7 @@
         <v>-0.26715701007098103</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -970,7 +970,7 @@
         <v>-0.86597340998136396</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -981,7 +981,7 @@
         <v>-0.73489215905923999</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -992,7 +992,7 @@
         <v>-0.62997469959180297</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1003,7 +1003,7 @@
         <v>-0.55128660499122795</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1014,7 +1014,7 @@
         <v>-1.09777542199222</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1025,7 +1025,7 @@
         <v>-0.99285796252479397</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1036,7 +1036,7 @@
         <v>-0.91416986792421495</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>-0.83548177332364104</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1058,7 +1058,7 @@
         <v>-1.56551057098048</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1069,7 +1069,7 @@
         <v>-1.4605931115130499</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1080,7 +1080,7 @@
         <v>-1.27698755744504</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1091,7 +1091,7 @@
         <v>-1.11961136824388</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1102,7 +1102,7 @@
         <v>-0.90977644930901702</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1113,7 +1113,7 @@
         <v>-1.613575882099</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1124,7 +1124,7 @@
         <v>-1.5348877874984199</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1135,7 +1135,7 @@
         <v>-1.45619969289785</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1146,7 +1146,7 @@
         <v>-2.9468800716935899</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1157,7 +1157,7 @@
         <v>-2.8681919770930202</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1168,7 +1168,7 @@
         <v>-2.7632745176255802</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1179,7 +1179,7 @@
         <v>-2.6058983284244301</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1190,7 +1190,7 @@
         <v>-2.5272102338238498</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1201,7 +1201,7 @@
         <v>-2.3960634094895599</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
